--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B87C5B-C362-44F4-B0E8-F7E0D92ED912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC764B2-F7B3-4402-83A6-90CB18BB16D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="263">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -816,6 +816,18 @@
   </si>
   <si>
     <t>Incubation protocol</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>analytic run of the analysis</t>
+  </si>
+  <si>
+    <t>nylon_pore_size_µm</t>
+  </si>
+  <si>
+    <t>bag_size_cm2</t>
   </si>
 </sst>
 </file>
@@ -2098,13 +2110,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB11"/>
+  <dimension ref="A1:DB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2667,141 +2679,27 @@
     </row>
     <row r="8" spans="1:106">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K8" t="s">
-        <v>178</v>
-      </c>
-      <c r="L8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N8" t="s">
-        <v>181</v>
-      </c>
-      <c r="O8" t="s">
-        <v>182</v>
-      </c>
-      <c r="P8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" t="s">
-        <v>185</v>
-      </c>
-      <c r="S8" t="s">
-        <v>186</v>
-      </c>
-      <c r="T8" t="s">
-        <v>187</v>
-      </c>
-      <c r="U8" t="s">
-        <v>188</v>
-      </c>
-      <c r="V8" t="s">
-        <v>189</v>
-      </c>
-      <c r="W8" t="s">
-        <v>190</v>
-      </c>
-      <c r="X8" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:106">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2810,51 +2708,129 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
         <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="J9" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="K9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="M9" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="N9" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="O9" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="Q9" t="s">
-        <v>222</v>
+        <v>184</v>
+      </c>
+      <c r="R9" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" t="s">
+        <v>187</v>
+      </c>
+      <c r="U9" t="s">
+        <v>188</v>
+      </c>
+      <c r="V9" t="s">
+        <v>189</v>
+      </c>
+      <c r="W9" t="s">
+        <v>190</v>
+      </c>
+      <c r="X9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:106">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2863,60 +2839,51 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" t="s">
         <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="K10" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="L10" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="M10" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="N10" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="O10" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="Q10" t="s">
-        <v>247</v>
-      </c>
-      <c r="R10" t="s">
-        <v>248</v>
-      </c>
-      <c r="S10" t="s">
-        <v>249</v>
-      </c>
-      <c r="T10" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:106">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2925,43 +2892,133 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
         <v>117</v>
       </c>
       <c r="G11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N11" t="s">
+        <v>244</v>
+      </c>
+      <c r="O11" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R11" t="s">
+        <v>248</v>
+      </c>
+      <c r="S11" t="s">
+        <v>249</v>
+      </c>
+      <c r="T11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
         <v>225</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>226</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>227</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>228</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>229</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>230</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M12" t="s">
         <v>231</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N12" t="s">
         <v>232</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O12" t="s">
         <v>233</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P12" t="s">
         <v>234</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q12" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:106">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2979,13 +3036,13 @@
           <x14:formula1>
             <xm:f>description!$E$6:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C11</xm:sqref>
+          <xm:sqref>C2:C14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AA43B74-602F-42D3-8C41-9A5E92E4A78B}">
           <x14:formula1>
             <xm:f>description!$E$7:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D11</xm:sqref>
+          <xm:sqref>D2:D14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2997,7 +3054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC764B2-F7B3-4402-83A6-90CB18BB16D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FD5031-AB2C-48CA-BF7F-9C6864430194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="247">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -716,42 +716,6 @@
     <t>gc_method</t>
   </si>
   <si>
-    <t>batch_incub_6</t>
-  </si>
-  <si>
-    <t>batch_duo_fa_1</t>
-  </si>
-  <si>
-    <t>batch_duo_fa_2</t>
-  </si>
-  <si>
-    <t>batch_duo_fa_3</t>
-  </si>
-  <si>
-    <t>batch_duo_fa_4</t>
-  </si>
-  <si>
-    <t>batch_duo_fa_5</t>
-  </si>
-  <si>
-    <t>batch_duo_fa_6</t>
-  </si>
-  <si>
-    <t>batch_duo_fa_7</t>
-  </si>
-  <si>
-    <t>batch_rum_duo_1</t>
-  </si>
-  <si>
-    <t>batch_rum_duo_2</t>
-  </si>
-  <si>
-    <t>batch_rum_duo_3</t>
-  </si>
-  <si>
-    <t>incubation_protocol</t>
-  </si>
-  <si>
     <t>long_1_25</t>
   </si>
   <si>
@@ -803,9 +767,6 @@
     <t>protocol of gas chromatography</t>
   </si>
   <si>
-    <t>protocol of incubation</t>
-  </si>
-  <si>
     <t>Protocol</t>
   </si>
   <si>
@@ -815,19 +776,10 @@
     <t>GC method</t>
   </si>
   <si>
-    <t>Incubation protocol</t>
-  </si>
-  <si>
     <t>run</t>
   </si>
   <si>
     <t>analytic run of the analysis</t>
-  </si>
-  <si>
-    <t>nylon_pore_size_µm</t>
-  </si>
-  <si>
-    <t>bag_size_cm2</t>
   </si>
 </sst>
 </file>
@@ -2110,13 +2062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB14"/>
+  <dimension ref="A1:DB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2679,7 +2631,7 @@
     </row>
     <row r="8" spans="1:106">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -2691,7 +2643,7 @@
         <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:106">
@@ -2699,7 +2651,7 @@
         <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2708,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
         <v>117</v>
@@ -2830,7 +2782,7 @@
         <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2839,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
         <v>117</v>
@@ -2883,7 +2835,7 @@
         <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2892,138 +2844,57 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
         <v>117</v>
       </c>
       <c r="G11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N11" t="s">
+        <v>232</v>
+      </c>
+      <c r="O11" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R11" t="s">
+        <v>236</v>
+      </c>
+      <c r="S11" t="s">
         <v>237</v>
       </c>
-      <c r="H11" t="s">
+      <c r="T11" t="s">
         <v>238</v>
-      </c>
-      <c r="I11" t="s">
-        <v>239</v>
-      </c>
-      <c r="J11" t="s">
-        <v>240</v>
-      </c>
-      <c r="K11" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" t="s">
-        <v>242</v>
-      </c>
-      <c r="M11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N11" t="s">
-        <v>244</v>
-      </c>
-      <c r="O11" t="s">
-        <v>245</v>
-      </c>
-      <c r="P11" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R11" t="s">
-        <v>248</v>
-      </c>
-      <c r="S11" t="s">
-        <v>249</v>
-      </c>
-      <c r="T11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:106">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I12" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" t="s">
-        <v>228</v>
-      </c>
-      <c r="K12" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" t="s">
-        <v>230</v>
-      </c>
-      <c r="M12" t="s">
-        <v>231</v>
-      </c>
-      <c r="N12" t="s">
-        <v>232</v>
-      </c>
-      <c r="O12" t="s">
-        <v>233</v>
-      </c>
-      <c r="P12" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:106">
-      <c r="A13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:106">
-      <c r="A14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{C119B620-5B1A-4B71-B7AB-8135C42F3CA9}">
       <formula1>$G$5:$DB$5</formula1>
     </dataValidation>
@@ -3031,7 +2902,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63FF082E-FE70-4372-A8CC-717DC18F28AE}">
           <x14:formula1>
             <xm:f>description!$E$6:$H$6</xm:f>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FD5031-AB2C-48CA-BF7F-9C6864430194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFBFB66-2FE4-41D3-AB53-CD8E9FD6354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -2065,10 +2065,10 @@
   <dimension ref="A1:DB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFBFB66-2FE4-41D3-AB53-CD8E9FD6354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CFF287-C40A-4F9A-8C76-E835E1FAF9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="250">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -780,6 +780,15 @@
   </si>
   <si>
     <t>analytic run of the analysis</t>
+  </si>
+  <si>
+    <t>sample_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date of sampling format &lt;dd/mm/yyyy&gt;</t>
   </si>
 </sst>
 </file>
@@ -1608,13 +1617,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2062,13 +2074,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB11"/>
+  <dimension ref="A1:DB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2547,91 +2559,85 @@
     </row>
     <row r="5" spans="1:106">
       <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:106">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
         <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:106">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:106">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -2643,146 +2649,35 @@
         <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>246</v>
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:106">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O9" t="s">
-        <v>182</v>
-      </c>
-      <c r="P9" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>184</v>
-      </c>
-      <c r="R9" t="s">
-        <v>185</v>
-      </c>
-      <c r="S9" t="s">
-        <v>186</v>
-      </c>
-      <c r="T9" t="s">
-        <v>187</v>
-      </c>
-      <c r="U9" t="s">
-        <v>188</v>
-      </c>
-      <c r="V9" t="s">
-        <v>189</v>
-      </c>
-      <c r="W9" t="s">
-        <v>190</v>
-      </c>
-      <c r="X9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:106">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2791,51 +2686,129 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
         <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="H10" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="I10" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="J10" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L10" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="Q10" t="s">
-        <v>222</v>
+        <v>184</v>
+      </c>
+      <c r="R10" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" t="s">
+        <v>186</v>
+      </c>
+      <c r="T10" t="s">
+        <v>187</v>
+      </c>
+      <c r="U10" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" t="s">
+        <v>189</v>
+      </c>
+      <c r="W10" t="s">
+        <v>190</v>
+      </c>
+      <c r="X10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:106">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2844,76 +2817,132 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
         <v>117</v>
       </c>
       <c r="G11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" t="s">
+        <v>217</v>
+      </c>
+      <c r="M11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" t="s">
+        <v>219</v>
+      </c>
+      <c r="O11" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
         <v>225</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>226</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>227</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>228</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>229</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>230</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M12" t="s">
         <v>231</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N12" t="s">
         <v>232</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O12" t="s">
         <v>233</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P12" t="s">
         <v>234</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q12" t="s">
         <v>235</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R12" t="s">
         <v>236</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S12" t="s">
         <v>237</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T12" t="s">
         <v>238</v>
       </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{C119B620-5B1A-4B71-B7AB-8135C42F3CA9}">
-      <formula1>$G$5:$DB$5</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{C119B620-5B1A-4B71-B7AB-8135C42F3CA9}">
+      <formula1>$G$6:$DB$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63FF082E-FE70-4372-A8CC-717DC18F28AE}">
-          <x14:formula1>
-            <xm:f>description!$E$6:$H$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C14</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AA43B74-602F-42D3-8C41-9A5E92E4A78B}">
           <x14:formula1>
             <xm:f>description!$E$7:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D14</xm:sqref>
+          <xm:sqref>D2:D15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32F9FBDE-B44D-400B-BD38-4F4BE0F9E185}">
+          <x14:formula1>
+            <xm:f>description!$E$6:$I$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2923,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2937,7 +2966,7 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2962,8 +2991,11 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +3009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -2991,7 +3023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.6">
+    <row r="4" spans="1:9" ht="57.6">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -3005,7 +3037,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.6">
+    <row r="5" spans="1:9" ht="57.6">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3019,7 +3051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3044,8 +3076,11 @@
       <c r="H6" t="s">
         <v>112</v>
       </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3065,7 +3100,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3093,7 +3128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>133</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CFF287-C40A-4F9A-8C76-E835E1FAF9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A015D-5F4B-4158-8F9E-D391E1CDB512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="265">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -789,6 +789,51 @@
   </si>
   <si>
     <t>date of sampling format &lt;dd/mm/yyyy&gt;</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>cas_nr</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>arrival_date</t>
+  </si>
+  <si>
+    <t>ref_nr</t>
+  </si>
+  <si>
+    <t>drymatter_g_kg</t>
+  </si>
+  <si>
+    <t>ash_g_kgdm</t>
+  </si>
+  <si>
+    <t>crude_fibre_g_kgdm</t>
+  </si>
+  <si>
+    <t>crude_protein_g_kgdm</t>
+  </si>
+  <si>
+    <t>crude_fat_g_kgdm</t>
+  </si>
+  <si>
+    <t>adf_g_kgdm</t>
+  </si>
+  <si>
+    <t>ndf_g_kgdm</t>
+  </si>
+  <si>
+    <t>starch_g_kgdm</t>
+  </si>
+  <si>
+    <t>If exact date not known, 1/1 is put</t>
   </si>
 </sst>
 </file>
@@ -2074,13 +2119,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB21"/>
+  <dimension ref="A1:DB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2918,8 +2963,79 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
+    <row r="13" spans="1:106">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106">
+      <c r="A14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:106">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:106">
+      <c r="A16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2952,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3142,6 +3258,9 @@
         <v>152</v>
       </c>
     </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A015D-5F4B-4158-8F9E-D391E1CDB512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77757AF5-356F-400A-A653-E526CEDB682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
   <sheets>
-    <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="description" sheetId="2" r:id="rId2"/>
+    <sheet name="vocabulary_old" sheetId="1" r:id="rId1"/>
+    <sheet name="vocabulary" sheetId="4" r:id="rId2"/>
+    <sheet name="description" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="265">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -1102,7 +1103,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1315,6 +1316,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1662,7 +1675,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1674,6 +1687,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% - Accent1 2" xfId="19" xr:uid="{77E55010-737E-41F1-998F-D4B5A5EBB76A}"/>
@@ -2121,11 +2143,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
   <dimension ref="A1:DB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CI4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" sqref="A1:DB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3067,10 +3089,1119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB33DE6-D058-433F-9B7D-5598CD0261F2}">
+  <dimension ref="A1:Z106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="21" max="21" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="86.4">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:F6" xr:uid="{865A20BB-1F5D-416D-8AD5-2BCD3ABC6B25}">
+      <formula1>$G$6:$DB$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D11CD02-4B1B-4864-99D9-48419F1D75FF}">
+          <x14:formula1>
+            <xm:f>description!$E$6:$I$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:Z3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A60B9CC8-BE80-475D-B087-1A2396777CC1}">
+          <x14:formula1>
+            <xm:f>description!$E$7:$H$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:O4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D4BA7-81A7-496D-83F7-4CE2A3B40B1B}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:I25"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77757AF5-356F-400A-A653-E526CEDB682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A19A04F-DA44-499E-B3E5-1EE9D06030D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="270">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -835,6 +835,21 @@
   </si>
   <si>
     <t>If exact date not known, 1/1 is put</t>
+  </si>
+  <si>
+    <t>mmol_per_l_serum</t>
+  </si>
+  <si>
+    <t>umol_per_l_serum</t>
+  </si>
+  <si>
+    <t>micromol</t>
+  </si>
+  <si>
+    <t>millimol</t>
+  </si>
+  <si>
+    <t>extra description of the factor levels below</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1560,6 +1575,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1675,7 +1705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1687,15 +1717,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="112">
     <cellStyle name="20% - Accent1 2" xfId="19" xr:uid="{77E55010-737E-41F1-998F-D4B5A5EBB76A}"/>
@@ -3090,1089 +3127,3675 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB33DE6-D058-433F-9B7D-5598CD0261F2}">
-  <dimension ref="A1:Z106"/>
+  <dimension ref="A1:AA106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="21" max="21" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="22" max="22" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:27">
+      <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="9" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="7" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="7" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="86.4">
-      <c r="A5" s="8" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" ht="86.4">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="7" t="s">
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="7" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="7" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" s="9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="7" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="9" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="7" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="7" t="s">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="7" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7" t="s">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" s="9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="7" t="s">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J14" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" s="9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="7" t="s">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J15" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" s="9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="7" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J16" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" s="9" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7" t="s">
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J17" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="7" t="s">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J18" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J19" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="7" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J20" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J21" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J22" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="7" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J23" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J24" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J25" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J26" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="7" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J27" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="7" t="s">
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J28" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="7" t="s">
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J29" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="7" t="s">
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J30" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J31" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="7" t="s">
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J32" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="7" t="s">
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J33" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="7" t="s">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J34" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="7" t="s">
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J35" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="7" t="s">
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J36" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="7" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J37" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="7" t="s">
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J38" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="7" t="s">
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J39" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="7" t="s">
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J40" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="7" t="s">
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J41" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="7" t="s">
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J42" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="7" t="s">
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J43" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="7" t="s">
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="7" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="7" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="7" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="7" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="7" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="7" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="7" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="7" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="7" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="7" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="7" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="7" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="7" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="A66" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="7" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="A67" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="7" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="A68" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="7" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="7" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="7" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="7" t="s">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="7" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="7" t="s">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="7" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="7" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="7" t="s">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="7" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7" t="s">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="7" t="s">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="7" t="s">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="7" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="7" t="s">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="7" t="s">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="7" t="s">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="7" t="s">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="7" t="s">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="7" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="7" t="s">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="7" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="7" t="s">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="7" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="7" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="7" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+      <c r="AA95" s="9"/>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="7" t="s">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="7" t="s">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="9"/>
+      <c r="AA97" s="9"/>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="7" t="s">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AA98" s="9"/>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="7" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="7" t="s">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="7" t="s">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="7" t="s">
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="7" t="s">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="7" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="9"/>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="7" t="s">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="A106" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+      <c r="AA106" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:F6" xr:uid="{865A20BB-1F5D-416D-8AD5-2BCD3ABC6B25}">
-      <formula1>$G$6:$DB$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6" xr:uid="{865A20BB-1F5D-416D-8AD5-2BCD3ABC6B25}">
+      <formula1>$H$6:$DC$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4183,13 +6806,13 @@
           <x14:formula1>
             <xm:f>description!$E$6:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:Z3</xm:sqref>
+          <xm:sqref>B3:AA3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A60B9CC8-BE80-475D-B087-1A2396777CC1}">
           <x14:formula1>
             <xm:f>description!$E$7:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:O4</xm:sqref>
+          <xm:sqref>B4:P4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A19A04F-DA44-499E-B3E5-1EE9D06030D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D323239-11BC-432E-9648-BDAEA72124B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="272">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -850,6 +850,12 @@
   </si>
   <si>
     <t>extra description of the factor levels below</t>
+  </si>
+  <si>
+    <t>test_unit</t>
+  </si>
+  <si>
+    <t>testing purpose</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3139,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3678,8 +3684,12 @@
         <v>120</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>172</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D323239-11BC-432E-9648-BDAEA72124B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679A1DF-3C5B-4DE1-B105-02D79AE09083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="273">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -856,6 +856,9 @@
   </si>
   <si>
     <t>testing purpose</t>
+  </si>
+  <si>
+    <t>starch content (g per kg dry matter)</t>
   </si>
 </sst>
 </file>
@@ -3136,10 +3139,10 @@
   <dimension ref="A1:AA106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3152,6 +3155,8 @@
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
     <col min="22" max="22" width="22.5546875" customWidth="1"/>
+    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1">
@@ -3447,7 +3452,9 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
+      <c r="AA5" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="6" t="s">

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679A1DF-3C5B-4DE1-B105-02D79AE09083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EACE7B-9A2E-4B5A-91CE-5DB9B6F2350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="269">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -843,19 +843,7 @@
     <t>umol_per_l_serum</t>
   </si>
   <si>
-    <t>micromol</t>
-  </si>
-  <si>
-    <t>millimol</t>
-  </si>
-  <si>
-    <t>extra description of the factor levels below</t>
-  </si>
-  <si>
     <t>test_unit</t>
-  </si>
-  <si>
-    <t>testing purpose</t>
   </si>
   <si>
     <t>starch content (g per kg dry matter)</t>
@@ -3136,13 +3124,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB33DE6-D058-433F-9B7D-5598CD0261F2}">
-  <dimension ref="A1:AA106"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3153,13 +3141,12 @@
     <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="22" max="22" width="22.5546875" customWidth="1"/>
-    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5546875" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1">
+    <row r="1" spans="1:26" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3178,69 +3165,68 @@
       <c r="F1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="H1" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="U1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>258</v>
       </c>
+      <c r="V1" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="W1" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA1" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
@@ -3257,25 +3243,25 @@
       <c r="F2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>117</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M2" s="9" t="s">
         <v>244</v>
       </c>
+      <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -3289,9 +3275,8 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" spans="1:27">
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3310,15 +3295,17 @@
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="9" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>7</v>
@@ -3326,9 +3313,7 @@
       <c r="L3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -3342,9 +3327,8 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -3363,15 +3347,17 @@
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="9" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>8</v>
@@ -3379,9 +3365,7 @@
       <c r="L4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -3395,9 +3379,8 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" ht="86.4">
+    </row>
+    <row r="5" spans="1:26" ht="86.4">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -3417,46 +3400,43 @@
         <v>125</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="M5" s="11" t="s">
         <v>241</v>
       </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>264</v>
       </c>
+      <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="Z5" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="6" t="s">
         <v>115</v>
       </c>
@@ -3473,23 +3453,23 @@
       <c r="F6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
         <v>117</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>117</v>
-      </c>
+      <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -3503,9 +3483,8 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -3518,21 +3497,21 @@
       <c r="F7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>170</v>
       </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="K7" s="9" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="M7" s="9" t="s">
         <v>225</v>
       </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -3546,9 +3525,8 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -3561,21 +3539,21 @@
       <c r="F8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>171</v>
       </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="K8" s="9" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -3589,9 +3567,8 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-    </row>
-    <row r="9" spans="1:27">
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -3605,22 +3582,20 @@
         <v>265</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="K9" s="9" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="M9" s="9" t="s">
         <v>227</v>
       </c>
+      <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -3634,9 +3609,8 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -3650,22 +3624,20 @@
         <v>266</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="9" t="s">
         <v>136</v>
       </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="K10" s="9" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M10" s="9" t="s">
         <v>228</v>
       </c>
+      <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -3679,9 +3651,8 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-    </row>
-    <row r="11" spans="1:27">
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -3692,25 +3663,23 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="M11" s="9" t="s">
         <v>229</v>
       </c>
+      <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -3724,9 +3693,8 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3737,21 +3705,21 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>173</v>
       </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="K12" s="9" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="M12" s="9" t="s">
         <v>230</v>
       </c>
+      <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -3765,9 +3733,8 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -3781,16 +3748,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="K13" s="9" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="M13" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -3804,9 +3771,8 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -3820,16 +3786,16 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="K14" s="9" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="M14" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -3843,9 +3809,8 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -3859,16 +3824,16 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="K15" s="9" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="M15" s="9" t="s">
         <v>233</v>
       </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -3882,9 +3847,8 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -3898,16 +3862,16 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="K16" s="9" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="M16" s="9" t="s">
         <v>234</v>
       </c>
+      <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -3921,9 +3885,8 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-    </row>
-    <row r="17" spans="1:27">
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -3937,16 +3900,16 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="K17" s="9" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="M17" s="9" t="s">
         <v>235</v>
       </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -3960,9 +3923,8 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-    </row>
-    <row r="18" spans="1:27">
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -3976,14 +3938,14 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9" t="s">
         <v>236</v>
       </c>
+      <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -3997,9 +3959,8 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-    </row>
-    <row r="19" spans="1:27">
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -4013,14 +3974,14 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>237</v>
       </c>
+      <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -4034,9 +3995,8 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -4050,14 +4010,14 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9" t="s">
         <v>238</v>
       </c>
+      <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -4071,9 +4031,8 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -4087,10 +4046,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>188</v>
       </c>
+      <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -4106,9 +4065,8 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -4122,10 +4080,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>189</v>
       </c>
+      <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -4141,9 +4099,8 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -4157,10 +4114,10 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>190</v>
       </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -4176,9 +4133,8 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -4192,10 +4148,10 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>191</v>
       </c>
+      <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -4211,9 +4167,8 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
@@ -4227,10 +4182,10 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>192</v>
       </c>
+      <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -4246,9 +4201,8 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -4262,10 +4216,10 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>193</v>
       </c>
+      <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -4281,9 +4235,8 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -4297,10 +4250,10 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -4316,9 +4269,8 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -4332,10 +4284,10 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>195</v>
       </c>
+      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -4351,9 +4303,8 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -4367,10 +4318,10 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -4386,9 +4337,8 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
@@ -4402,10 +4352,10 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="s">
+      <c r="J30" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -4421,9 +4371,8 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -4437,10 +4386,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>198</v>
       </c>
+      <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -4456,9 +4405,8 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-    </row>
-    <row r="32" spans="1:27">
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -4472,10 +4420,10 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>199</v>
       </c>
+      <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -4491,9 +4439,8 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -4505,10 +4452,10 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -4524,9 +4471,8 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
@@ -4538,10 +4484,10 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>201</v>
       </c>
+      <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -4557,9 +4503,8 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-    </row>
-    <row r="35" spans="1:27">
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -4571,10 +4516,10 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>202</v>
       </c>
+      <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -4590,9 +4535,8 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-    </row>
-    <row r="36" spans="1:27">
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
@@ -4604,10 +4548,10 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>203</v>
       </c>
+      <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -4623,9 +4567,8 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-    </row>
-    <row r="37" spans="1:27">
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
@@ -4637,10 +4580,10 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>204</v>
       </c>
+      <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -4656,9 +4599,8 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-    </row>
-    <row r="38" spans="1:27">
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -4670,10 +4612,10 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>205</v>
       </c>
+      <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -4689,9 +4631,8 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-    </row>
-    <row r="39" spans="1:27">
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
@@ -4703,10 +4644,10 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>206</v>
       </c>
+      <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -4722,9 +4663,8 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-    </row>
-    <row r="40" spans="1:27">
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
@@ -4736,10 +4676,10 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>207</v>
       </c>
+      <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -4755,9 +4695,8 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-    </row>
-    <row r="41" spans="1:27">
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
@@ -4769,10 +4708,10 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9" t="s">
+      <c r="J41" s="9" t="s">
         <v>208</v>
       </c>
+      <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -4788,9 +4727,8 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-    </row>
-    <row r="42" spans="1:27">
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="6" t="s">
         <v>45</v>
       </c>
@@ -4802,10 +4740,10 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9" t="s">
+      <c r="J42" s="9" t="s">
         <v>209</v>
       </c>
+      <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -4821,9 +4759,8 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-    </row>
-    <row r="43" spans="1:27">
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="6" t="s">
         <v>46</v>
       </c>
@@ -4835,10 +4772,10 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>210</v>
       </c>
+      <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -4854,9 +4791,8 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-    </row>
-    <row r="44" spans="1:27">
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="6" t="s">
         <v>47</v>
       </c>
@@ -4885,9 +4821,8 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-    </row>
-    <row r="45" spans="1:27">
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="6" t="s">
         <v>48</v>
       </c>
@@ -4916,9 +4851,8 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-    </row>
-    <row r="46" spans="1:27">
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
@@ -4947,9 +4881,8 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-    </row>
-    <row r="47" spans="1:27">
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
@@ -4978,9 +4911,8 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-    </row>
-    <row r="48" spans="1:27">
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
@@ -5009,9 +4941,8 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-    </row>
-    <row r="49" spans="1:27">
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="6" t="s">
         <v>52</v>
       </c>
@@ -5040,9 +4971,8 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-    </row>
-    <row r="50" spans="1:27">
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
@@ -5071,9 +5001,8 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-    </row>
-    <row r="51" spans="1:27">
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="6" t="s">
         <v>54</v>
       </c>
@@ -5102,9 +5031,8 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-    </row>
-    <row r="52" spans="1:27">
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
@@ -5133,9 +5061,8 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-    </row>
-    <row r="53" spans="1:27">
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="6" t="s">
         <v>56</v>
       </c>
@@ -5164,9 +5091,8 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-    </row>
-    <row r="54" spans="1:27">
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
@@ -5195,9 +5121,8 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-    </row>
-    <row r="55" spans="1:27">
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="6" t="s">
         <v>58</v>
       </c>
@@ -5226,9 +5151,8 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-    </row>
-    <row r="56" spans="1:27">
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="6" t="s">
         <v>59</v>
       </c>
@@ -5257,9 +5181,8 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-    </row>
-    <row r="57" spans="1:27">
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
@@ -5288,9 +5211,8 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-    </row>
-    <row r="58" spans="1:27">
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="6" t="s">
         <v>61</v>
       </c>
@@ -5319,9 +5241,8 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-    </row>
-    <row r="59" spans="1:27">
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
@@ -5350,9 +5271,8 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-    </row>
-    <row r="60" spans="1:27">
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" s="6" t="s">
         <v>63</v>
       </c>
@@ -5381,9 +5301,8 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-    </row>
-    <row r="61" spans="1:27">
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="6" t="s">
         <v>64</v>
       </c>
@@ -5412,9 +5331,8 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-    </row>
-    <row r="62" spans="1:27">
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
@@ -5443,9 +5361,8 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-    </row>
-    <row r="63" spans="1:27">
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="6" t="s">
         <v>66</v>
       </c>
@@ -5474,9 +5391,8 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
-    </row>
-    <row r="64" spans="1:27">
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="6" t="s">
         <v>67</v>
       </c>
@@ -5505,9 +5421,8 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-    </row>
-    <row r="65" spans="1:27">
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="6" t="s">
         <v>68</v>
       </c>
@@ -5536,9 +5451,8 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-    </row>
-    <row r="66" spans="1:27">
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" s="6" t="s">
         <v>69</v>
       </c>
@@ -5567,9 +5481,8 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-    </row>
-    <row r="67" spans="1:27">
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="6" t="s">
         <v>70</v>
       </c>
@@ -5598,9 +5511,8 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-    </row>
-    <row r="68" spans="1:27">
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="6" t="s">
         <v>71</v>
       </c>
@@ -5629,9 +5541,8 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-    </row>
-    <row r="69" spans="1:27">
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="6" t="s">
         <v>72</v>
       </c>
@@ -5660,9 +5571,8 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-    </row>
-    <row r="70" spans="1:27">
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="6" t="s">
         <v>73</v>
       </c>
@@ -5691,9 +5601,8 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-    </row>
-    <row r="71" spans="1:27">
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" s="6" t="s">
         <v>74</v>
       </c>
@@ -5722,9 +5631,8 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-    </row>
-    <row r="72" spans="1:27">
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" s="6" t="s">
         <v>75</v>
       </c>
@@ -5753,9 +5661,8 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-    </row>
-    <row r="73" spans="1:27">
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="6" t="s">
         <v>76</v>
       </c>
@@ -5784,9 +5691,8 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-    </row>
-    <row r="74" spans="1:27">
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="6" t="s">
         <v>77</v>
       </c>
@@ -5815,9 +5721,8 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-    </row>
-    <row r="75" spans="1:27">
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="6" t="s">
         <v>78</v>
       </c>
@@ -5846,9 +5751,8 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-    </row>
-    <row r="76" spans="1:27">
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="6" t="s">
         <v>79</v>
       </c>
@@ -5877,9 +5781,8 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
-      <c r="AA76" s="9"/>
-    </row>
-    <row r="77" spans="1:27">
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="6" t="s">
         <v>80</v>
       </c>
@@ -5908,9 +5811,8 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-    </row>
-    <row r="78" spans="1:27">
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="6" t="s">
         <v>81</v>
       </c>
@@ -5939,9 +5841,8 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
-      <c r="AA78" s="9"/>
-    </row>
-    <row r="79" spans="1:27">
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="6" t="s">
         <v>82</v>
       </c>
@@ -5970,9 +5871,8 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
-      <c r="AA79" s="9"/>
-    </row>
-    <row r="80" spans="1:27">
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" s="6" t="s">
         <v>83</v>
       </c>
@@ -6001,9 +5901,8 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-    </row>
-    <row r="81" spans="1:27">
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" s="6" t="s">
         <v>84</v>
       </c>
@@ -6032,9 +5931,8 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
-      <c r="AA81" s="9"/>
-    </row>
-    <row r="82" spans="1:27">
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="6" t="s">
         <v>85</v>
       </c>
@@ -6063,9 +5961,8 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
-      <c r="AA82" s="9"/>
-    </row>
-    <row r="83" spans="1:27">
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="6" t="s">
         <v>86</v>
       </c>
@@ -6094,9 +5991,8 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
-      <c r="AA83" s="9"/>
-    </row>
-    <row r="84" spans="1:27">
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="6" t="s">
         <v>87</v>
       </c>
@@ -6125,9 +6021,8 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
-      <c r="AA84" s="9"/>
-    </row>
-    <row r="85" spans="1:27">
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="6" t="s">
         <v>88</v>
       </c>
@@ -6156,9 +6051,8 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
-      <c r="AA85" s="9"/>
-    </row>
-    <row r="86" spans="1:27">
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="6" t="s">
         <v>89</v>
       </c>
@@ -6187,9 +6081,8 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
-      <c r="AA86" s="9"/>
-    </row>
-    <row r="87" spans="1:27">
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="6" t="s">
         <v>90</v>
       </c>
@@ -6218,9 +6111,8 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
-      <c r="AA87" s="9"/>
-    </row>
-    <row r="88" spans="1:27">
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" s="6" t="s">
         <v>91</v>
       </c>
@@ -6249,9 +6141,8 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
-      <c r="AA88" s="9"/>
-    </row>
-    <row r="89" spans="1:27">
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" s="6" t="s">
         <v>92</v>
       </c>
@@ -6280,9 +6171,8 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
-      <c r="AA89" s="9"/>
-    </row>
-    <row r="90" spans="1:27">
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="6" t="s">
         <v>93</v>
       </c>
@@ -6311,9 +6201,8 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
-      <c r="AA90" s="9"/>
-    </row>
-    <row r="91" spans="1:27">
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="6" t="s">
         <v>94</v>
       </c>
@@ -6342,9 +6231,8 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
-      <c r="AA91" s="9"/>
-    </row>
-    <row r="92" spans="1:27">
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="6" t="s">
         <v>95</v>
       </c>
@@ -6373,9 +6261,8 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
-      <c r="AA92" s="9"/>
-    </row>
-    <row r="93" spans="1:27">
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="6" t="s">
         <v>96</v>
       </c>
@@ -6404,9 +6291,8 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
-      <c r="AA93" s="9"/>
-    </row>
-    <row r="94" spans="1:27">
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="6" t="s">
         <v>97</v>
       </c>
@@ -6435,9 +6321,8 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
-      <c r="AA94" s="9"/>
-    </row>
-    <row r="95" spans="1:27">
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="6" t="s">
         <v>98</v>
       </c>
@@ -6466,9 +6351,8 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
-      <c r="AA95" s="9"/>
-    </row>
-    <row r="96" spans="1:27">
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="6" t="s">
         <v>99</v>
       </c>
@@ -6497,9 +6381,8 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
-      <c r="AA96" s="9"/>
-    </row>
-    <row r="97" spans="1:27">
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="6" t="s">
         <v>100</v>
       </c>
@@ -6528,9 +6411,8 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
-      <c r="AA97" s="9"/>
-    </row>
-    <row r="98" spans="1:27">
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="6" t="s">
         <v>101</v>
       </c>
@@ -6559,9 +6441,8 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
-      <c r="AA98" s="9"/>
-    </row>
-    <row r="99" spans="1:27">
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" s="6" t="s">
         <v>102</v>
       </c>
@@ -6590,9 +6471,8 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
-      <c r="AA99" s="9"/>
-    </row>
-    <row r="100" spans="1:27">
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" s="6" t="s">
         <v>103</v>
       </c>
@@ -6621,9 +6501,8 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
-      <c r="AA100" s="9"/>
-    </row>
-    <row r="101" spans="1:27">
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" s="6" t="s">
         <v>104</v>
       </c>
@@ -6652,9 +6531,8 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
-      <c r="AA101" s="9"/>
-    </row>
-    <row r="102" spans="1:27">
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" s="6" t="s">
         <v>105</v>
       </c>
@@ -6683,9 +6561,8 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
-      <c r="AA102" s="9"/>
-    </row>
-    <row r="103" spans="1:27">
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" s="6" t="s">
         <v>106</v>
       </c>
@@ -6714,9 +6591,8 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
-      <c r="AA103" s="9"/>
-    </row>
-    <row r="104" spans="1:27">
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" s="6" t="s">
         <v>107</v>
       </c>
@@ -6745,9 +6621,8 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
-      <c r="AA104" s="9"/>
-    </row>
-    <row r="105" spans="1:27">
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" s="6" t="s">
         <v>108</v>
       </c>
@@ -6776,9 +6651,8 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
-      <c r="AA105" s="9"/>
-    </row>
-    <row r="106" spans="1:27">
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" s="6" t="s">
         <v>109</v>
       </c>
@@ -6807,12 +6681,11 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
-      <c r="AA106" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6" xr:uid="{865A20BB-1F5D-416D-8AD5-2BCD3ABC6B25}">
-      <formula1>$H$6:$DC$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:F6" xr:uid="{865A20BB-1F5D-416D-8AD5-2BCD3ABC6B25}">
+      <formula1>$G$6:$DB$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6823,13 +6696,13 @@
           <x14:formula1>
             <xm:f>description!$E$6:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:AA3</xm:sqref>
+          <xm:sqref>B3:Z3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A60B9CC8-BE80-475D-B087-1A2396777CC1}">
           <x14:formula1>
             <xm:f>description!$E$7:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:P4</xm:sqref>
+          <xm:sqref>B4:O4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EACE7B-9A2E-4B5A-91CE-5DB9B6F2350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33322D-D73B-48FB-8C60-62A89DD51E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="269">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -843,10 +843,12 @@
     <t>umol_per_l_serum</t>
   </si>
   <si>
-    <t>test_unit</t>
-  </si>
-  <si>
     <t>starch content (g per kg dry matter)</t>
+  </si>
+  <si>
+    <t>variable unit
+mmol: millimol
+umol: µmol</t>
   </si>
 </sst>
 </file>
@@ -3130,7 +3132,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3397,7 +3399,7 @@
         <v>249</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>143</v>
@@ -3433,7 +3435,7 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3662,9 +3664,7 @@
         <v>120</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>267</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
         <v>172</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33322D-D73B-48FB-8C60-62A89DD51E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E77528-3DA7-49B3-A1B9-4221FE92C3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="268">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -844,11 +844,6 @@
   </si>
   <si>
     <t>starch content (g per kg dry matter)</t>
-  </si>
-  <si>
-    <t>variable unit
-mmol: millimol
-umol: µmol</t>
   </si>
 </sst>
 </file>
@@ -3399,7 +3394,7 @@
         <v>249</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>143</v>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E77528-3DA7-49B3-A1B9-4221FE92C3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD11B78-9132-4AB4-80D2-5025E817065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="268">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -3127,7 +3127,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3144,9 +3144,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>123</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD11B78-9132-4AB4-80D2-5025E817065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711F852-8986-4956-B5BA-0D144B35243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="269">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>starch content (g per kg dry matter)</t>
+  </si>
+  <si>
+    <t>lanupro_ontology&gt;</t>
   </si>
 </sst>
 </file>
@@ -3127,7 +3130,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3144,7 +3147,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1">
-      <c r="A1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="B1" s="7" t="s">
         <v>123</v>
       </c>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A4094-5A2C-4D75-A218-A501119E97EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DAB99-999C-4CF0-AC65-305955AC0CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="273">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -843,9 +843,6 @@
   </si>
   <si>
     <t>starch content (g per kg dry matter)</t>
-  </si>
-  <si>
-    <t>lanupro_ontology&gt;</t>
   </si>
   <si>
     <t>brewers_grain</t>
@@ -2192,7 +2189,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2213,7 +2210,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>123</v>
@@ -2234,10 +2231,10 @@
         <v>135</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>138</v>
@@ -3578,7 +3575,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3614,7 +3611,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3650,7 +3647,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DAB99-999C-4CF0-AC65-305955AC0CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F7561-84B1-4200-9988-8EDA525B49FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -833,9 +833,6 @@
     <t>starch_g_kgdm</t>
   </si>
   <si>
-    <t>If exact date not known, 1/1 is put</t>
-  </si>
-  <si>
     <t>mmol_per_l_serum</t>
   </si>
   <si>
@@ -858,6 +855,9 @@
   </si>
   <si>
     <t>sample_information</t>
+  </si>
+  <si>
+    <t>If exact date not known 1/1 is put</t>
   </si>
 </sst>
 </file>
@@ -2186,10 +2186,10 @@
   <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2231,10 +2231,10 @@
         <v>135</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>138</v>
@@ -2498,7 +2498,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -2509,7 +2509,7 @@
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>137</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>136</v>
@@ -3575,7 +3575,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3611,7 +3611,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3647,7 +3647,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F7561-84B1-4200-9988-8EDA525B49FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC9712-03BF-410D-9453-617FA2D2DE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -857,7 +857,7 @@
     <t>sample_information</t>
   </si>
   <si>
-    <t>If exact date not known 1/1 is put</t>
+    <t>If the exact date not known 1/1 is put</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2189,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC9712-03BF-410D-9453-617FA2D2DE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514DC006-E2DE-4A3C-8E26-745C89AC6D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="275">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -858,6 +858,12 @@
   </si>
   <si>
     <t>If the exact date not known 1/1 is put</t>
+  </si>
+  <si>
+    <t>Sample Date</t>
+  </si>
+  <si>
+    <t>NDF_g_kgdm</t>
   </si>
 </sst>
 </file>
@@ -2186,10 +2192,10 @@
   <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2307,15 +2313,21 @@
       <c r="D2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="F2" s="8" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="J2" s="8" t="s">
         <v>117</v>
       </c>
@@ -2331,20 +2343,48 @@
       <c r="N2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="5" t="s">

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514DC006-E2DE-4A3C-8E26-745C89AC6D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8031C918-B47F-4F1D-8FA2-ACAB27C1170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="276">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>NDF_g_kgdm</t>
+  </si>
+  <si>
+    <t>general non-structured information</t>
   </si>
 </sst>
 </file>
@@ -2192,10 +2195,10 @@
   <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2425,7 +2428,9 @@
       <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -2479,7 +2484,9 @@
       <c r="N4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -2494,7 +2501,7 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="72">
+    <row r="5" spans="1:28" ht="86.4">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -2533,7 +2540,9 @@
       <c r="N5" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8031C918-B47F-4F1D-8FA2-ACAB27C1170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66255C3-2E3A-47C4-AA77-4717F0F09D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="277">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>general non-structured information</t>
+  </si>
+  <si>
+    <t>lanupro_ontology&gt;</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2201,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2219,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>123</v>

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66255C3-2E3A-47C4-AA77-4717F0F09D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E594D5-FB70-4CAC-938D-2CADAD342323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="276">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>rumen_fluid</t>
-  </si>
-  <si>
-    <t>sample_form</t>
   </si>
   <si>
     <t>frozen</t>
@@ -869,7 +866,7 @@
     <t>general non-structured information</t>
   </si>
   <si>
-    <t>lanupro_ontology&gt;</t>
+    <t>sample_forms</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2198,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2222,7 +2219,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>123</v>
@@ -2234,76 +2231,76 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="O1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -2311,22 +2308,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>117</v>
@@ -2341,13 +2338,13 @@
         <v>117</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>117</v>
@@ -2386,7 +2383,7 @@
         <v>117</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>117</v>
@@ -2406,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>7</v>
@@ -2518,39 +2515,39 @@
         <v>126</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L5" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="O5" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -2561,7 +2558,7 @@
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2628,20 +2625,20 @@
         <v>117</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -2672,20 +2669,20 @@
         <v>116</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -2713,23 +2710,23 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -2757,23 +2754,23 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -2802,20 +2799,20 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -2844,20 +2841,20 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -2891,13 +2888,13 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2931,13 +2928,13 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2971,13 +2968,13 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -3001,7 +2998,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -3011,13 +3008,13 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -3041,7 +3038,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -3051,13 +3048,13 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -3081,7 +3078,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -3091,11 +3088,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -3119,7 +3116,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -3129,11 +3126,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -3157,7 +3154,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3167,11 +3164,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -3195,7 +3192,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3205,7 +3202,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -3231,7 +3228,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -3241,7 +3238,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
@@ -3267,7 +3264,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -3277,7 +3274,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -3303,7 +3300,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -3313,7 +3310,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -3339,7 +3336,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3349,7 +3346,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -3375,7 +3372,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3385,7 +3382,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -3411,7 +3408,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3421,7 +3418,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -3447,7 +3444,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -3457,7 +3454,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -3483,7 +3480,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -3493,7 +3490,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -3519,7 +3516,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -3529,7 +3526,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -3555,7 +3552,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3565,7 +3562,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -3591,7 +3588,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -3601,7 +3598,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -3627,7 +3624,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3637,7 +3634,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -3663,7 +3660,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3673,7 +3670,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -3699,7 +3696,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -3709,7 +3706,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -3743,7 +3740,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -3777,7 +3774,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -3811,7 +3808,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -3845,7 +3842,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -3879,7 +3876,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -3913,7 +3910,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -3947,7 +3944,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -3981,7 +3978,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -6100,7 +6097,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6114,7 +6111,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57.6">
@@ -6128,7 +6125,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57.6">
@@ -6142,7 +6139,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6156,7 +6153,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
         <v>111</v>
@@ -6171,7 +6168,7 @@
         <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6185,7 +6182,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -6205,7 +6202,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6219,7 +6216,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6233,7 +6230,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:2">

--- a/data/raw_results/lanupro_vocabulary_general.xlsx
+++ b/data/raw_results/lanupro_vocabulary_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E594D5-FB70-4CAC-938D-2CADAD342323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EB191B-38BE-4145-9DCB-50B4F5C72D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -866,7 +866,7 @@
     <t>general non-structured information</t>
   </si>
   <si>
-    <t>sample_forms</t>
+    <t>sample_form</t>
   </si>
 </sst>
 </file>
